--- a/test/resultsvaryingn.xlsx
+++ b/test/resultsvaryingn.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="resultsvaryingn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">resultsvaryingn!$A$2:$A$28</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -148,25 +151,27 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>resultsvaryingn!$C$1</c:f>
+              <c:f>resultsvaryingn!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>new_w</c:v>
+                  <c:v>new_fc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -176,11 +181,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -188,89 +193,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
+              <c:f>resultsvaryingn!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -278,113 +229,61 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$C$2:$C$28</c:f>
+              <c:f>resultsvaryingn!$N$2:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.302278</c:v>
+                  <c:v>1.12016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.312337</c:v>
+                  <c:v>2.322536666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.311324</c:v>
+                  <c:v>3.536006666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.699836</c:v>
+                  <c:v>4.761623333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72541</c:v>
+                  <c:v>7.27409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.659422</c:v>
+                  <c:v>9.865233333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.06466</c:v>
+                  <c:v>12.81453333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.05175</c:v>
+                  <c:v>19.78383333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0739</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.42552</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.45464</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.45869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.34424</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.28623</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.29463</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.21103</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.16404</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.18648</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.13306</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.10533</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.12123</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.28971</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.30274</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.52244</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.136290000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.90273</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.58297</c:v>
+                  <c:v>26.63376666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>resultsvaryingn!$D$1</c:f>
+              <c:f>resultsvaryingn!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>old_w_kn2</c:v>
+                  <c:v>old_fc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -394,11 +293,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -406,89 +305,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
+              <c:f>resultsvaryingn!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -496,313 +341,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$D$2:$D$28</c:f>
+              <c:f>resultsvaryingn!$O$2:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.026048</c:v>
+                  <c:v>0.599957666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.032059</c:v>
+                  <c:v>2.480676666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.029664</c:v>
+                  <c:v>11.47819333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.078976</c:v>
+                  <c:v>19.1536</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.088366</c:v>
+                  <c:v>33.1639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.076746</c:v>
+                  <c:v>55.41926666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16668</c:v>
+                  <c:v>70.8609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.146906</c:v>
+                  <c:v>153.6326666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.134804</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.243981</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.241398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.236249</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.428138</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.435472</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.437351</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.888685</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.740592</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.712802</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.06321</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.13508</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.04008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.21259</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.15976</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.24407</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.72111</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.0234</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.66542</c:v>
+                  <c:v>264.193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>resultsvaryingn!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>old_w_k2n</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>resultsvaryingn!$E$2:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.061746</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.061616</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.059681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1274</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.119828</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.112081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.171191</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18465</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.176143</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.233202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.242429</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.368719</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.360762</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.360979</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.517064</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.487547</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.47964</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.59753</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.705566</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.598875</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.907323</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.897561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.922709</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.22659</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.28523</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.27803</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -812,25 +385,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1356651392"/>
-        <c:axId val="-1356284000"/>
+        <c:axId val="-1441303440"/>
+        <c:axId val="-1355180272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1356651392"/>
+        <c:axId val="-1441303440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -872,12 +441,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1356284000"/>
+        <c:crossAx val="-1355180272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1356284000"/>
+        <c:axId val="-1355180272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,12 +455,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -933,7 +497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1356651392"/>
+        <c:crossAx val="-1441303440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1063,243 +627,27 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>resultsvaryingn!$B$1</c:f>
+              <c:f>resultsvaryingn!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k</c:v>
+                  <c:v>new_w</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>resultsvaryingn!$B$2:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>resultsvaryingn!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>new_w</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1321,89 +669,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
+              <c:f>resultsvaryingn!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1411,102 +705,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$C$2:$C$28</c:f>
+              <c:f>resultsvaryingn!$K$2:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.302278</c:v>
+                  <c:v>0.308646333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.312337</c:v>
+                  <c:v>0.694889333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.311324</c:v>
+                  <c:v>1.063436666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.699836</c:v>
+                  <c:v>1.446283333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72541</c:v>
+                  <c:v>2.308366666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.659422</c:v>
+                  <c:v>3.187183333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.06466</c:v>
+                  <c:v>4.119873333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.05175</c:v>
+                  <c:v>6.37163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0739</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.42552</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.45464</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.45869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.34424</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.28623</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.29463</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.21103</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.16404</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.18648</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.13306</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.10533</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.12123</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.28971</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.30274</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.52244</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.136290000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.90273</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.58297</c:v>
+                  <c:v>8.873996666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>resultsvaryingn!$D$1</c:f>
+              <c:f>resultsvaryingn!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1516,8 +756,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1539,89 +781,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
+              <c:f>resultsvaryingn!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1629,102 +817,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$D$2:$D$28</c:f>
+              <c:f>resultsvaryingn!$L$2:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.026048</c:v>
+                  <c:v>0.029257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.032059</c:v>
+                  <c:v>0.0813626666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.029664</c:v>
+                  <c:v>0.149463333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.078976</c:v>
+                  <c:v>0.240542666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.088366</c:v>
+                  <c:v>0.433653666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.076746</c:v>
+                  <c:v>0.780693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16668</c:v>
+                  <c:v>1.079456666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.146906</c:v>
+                  <c:v>2.205473333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.134804</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.243981</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.241398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.236249</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.428138</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.435472</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.437351</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.888685</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.740592</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.712802</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.06321</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.13508</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.04008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.21259</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.15976</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.24407</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.72111</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.0234</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.66542</c:v>
+                  <c:v>3.80331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>resultsvaryingn!$E$1</c:f>
+              <c:f>resultsvaryingn!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1734,8 +868,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1757,89 +893,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
+              <c:f>resultsvaryingn!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1847,531 +929,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>resultsvaryingn!$E$2:$E$28</c:f>
+              <c:f>resultsvaryingn!$M$2:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.061746</c:v>
+                  <c:v>0.0610143333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.061616</c:v>
+                  <c:v>0.119769666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.059681</c:v>
+                  <c:v>0.177328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1274</c:v>
+                  <c:v>0.238580333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.119828</c:v>
+                  <c:v>0.363486666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.112081</c:v>
+                  <c:v>0.494750333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.171191</c:v>
+                  <c:v>0.633990333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18465</c:v>
+                  <c:v>0.909197666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.176143</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.233202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.242429</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.368719</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.360762</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.360979</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.517064</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.487547</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.47964</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.59753</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.705566</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.598875</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.907323</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.897561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.922709</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.22659</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.28523</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.27803</c:v>
+                  <c:v>1.263283333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>resultsvaryingn!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>new_fc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>resultsvaryingn!$F$2:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>1.09158</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.43435</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.30312</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.23014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.46594</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.61178</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5303</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.73195</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.83806</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.71486</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.39559</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.24436</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.18232</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.88857</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.0263</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.68083</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.7113</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.6684</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.0639</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.1242</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19.0274</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.1999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26.657</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27.0665</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.1778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>resultsvaryingn!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>old_fc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>resultsvaryingn!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7500.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>resultsvaryingn!$G$2:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.490306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.676505</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.633062</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.16847</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.50095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.77261</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.9938</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.4453</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.99548</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.882</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.7701</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.8087</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.5347</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.6701</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>38.2869</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>52.3291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>55.8938</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58.0349</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>71.2598</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>81.6105</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>59.7124</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>148.053</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>157.049</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>155.796</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>317.913</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>226.807</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>247.859</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2381,25 +973,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1355528896"/>
-        <c:axId val="-1355527536"/>
+        <c:axId val="-1440835744"/>
+        <c:axId val="-1427451776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1355528896"/>
+        <c:axId val="-1440835744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2441,12 +1029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1355527536"/>
+        <c:crossAx val="-1427451776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1355527536"/>
+        <c:axId val="-1427451776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,12 +1043,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2502,7 +1085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1355528896"/>
+        <c:crossAx val="-1440835744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3700,19 +2283,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3730,19 +2313,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4028,7 +2611,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
